--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -61,6 +67,21 @@
     <t>华商丰利增强定期开放债券C</t>
   </si>
   <si>
+    <t>26.61</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
     <t>94.03</t>
   </si>
   <si>
@@ -77,6 +98,21 @@
   </si>
   <si>
     <t>0.97</t>
+  </si>
+  <si>
+    <t>0.9367</t>
+  </si>
+  <si>
+    <t>0.3566</t>
+  </si>
+  <si>
+    <t>0.1483</t>
+  </si>
+  <si>
+    <t>0.0096</t>
+  </si>
+  <si>
+    <t>0.0057</t>
   </si>
 </sst>
 </file>
@@ -434,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,104 +492,140 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -1,150 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>001643</t>
-  </si>
-  <si>
-    <t>001644</t>
-  </si>
-  <si>
-    <t>001468</t>
-  </si>
-  <si>
-    <t>003092</t>
-  </si>
-  <si>
-    <t>003093</t>
-  </si>
-  <si>
-    <t>汇丰晋信智造先锋股票A</t>
-  </si>
-  <si>
-    <t>汇丰晋信智造先锋股票C</t>
-  </si>
-  <si>
-    <t>广发改革先锋灵活配置混合</t>
-  </si>
-  <si>
-    <t>华商丰利增强定期开放债券A</t>
-  </si>
-  <si>
-    <t>华商丰利增强定期开放债券C</t>
-  </si>
-  <si>
-    <t>26.61</t>
-  </si>
-  <si>
-    <t>10.13</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>94.03</t>
-  </si>
-  <si>
-    <t>90.42</t>
-  </si>
-  <si>
-    <t>20.02</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.9367</t>
-  </si>
-  <si>
-    <t>0.3566</t>
-  </si>
-  <si>
-    <t>0.1483</t>
-  </si>
-  <si>
-    <t>0.0096</t>
-  </si>
-  <si>
-    <t>0.0057</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,167 +446,1709 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4862</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0846</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7458</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4729</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,1806 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9169</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1634</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0894</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7717</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4757</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源祥和债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>690006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>690206</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银信用双利债券 - C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3954,4 +3955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3963,7 +3964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3974,17 +3975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3994,14 +4015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.91</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4010,14 +4053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.79</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4026,13 +4091,705 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3622</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4704,7 +4705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4715,17 +4716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4735,14 +4756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.64</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4751,14 +4794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.91</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4767,14 +4832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.79</v>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4783,13 +4870,3336 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6786</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2328</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0012</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8623</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1151</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0906</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9522</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9522</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9518</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8646</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7810</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6971</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6848</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6545</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5293</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8098,7 +8099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8109,17 +8110,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8129,14 +8150,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.78</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8145,14 +8188,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.64</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8161,14 +8226,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.91</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8177,14 +8264,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.79</v>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2835</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -8193,13 +8302,3849 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.1561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6281</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5796</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8739</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8000</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5958</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1796</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0160</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9884</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7946</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7945</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7328</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5964</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5886</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4884</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4305</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3676</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161123</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达并购重组指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1976</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.46</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>59.3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>46.78</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>12.64</v>
+        <v>46.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>20.91</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D6" t="n">
-        <v>14.79</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -583,6 +600,2262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7910</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4849</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3458</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0423</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7945</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6659</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6123</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4593</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银可转债债券</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4510,7 +6783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7903,7 +10176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8643,7 +10916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10445,7 +12718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11907,7 +14180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000683-远兴能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>37.67</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
-        <v>59.3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>46.78</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>12.64</v>
+        <v>46.78</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>20.91</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>14.79</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.46</v>
       </c>
     </row>
@@ -600,6 +617,1842 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.3279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9208</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发策略优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3493</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1741</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013532</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001761</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8433</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010628</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发瑞轩三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5783</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4956</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3761</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1914</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0673</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8289</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6995</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6790</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001762</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发安宏回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014321</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005351</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015191</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合D</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014322</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>德邦周期精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015190</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富行业整合主题混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2855,7 +4708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6783,7 +8636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10176,7 +12029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10916,7 +12769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12718,7 +14571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14180,7 +16033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
